--- a/experiment2_analysis.xlsx
+++ b/experiment2_analysis.xlsx
@@ -4544,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R49" sqref="P41:R49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4556,7 +4556,8 @@
     <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9" style="1"/>
+    <col min="19" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
@@ -7227,7 +7228,7 @@
     <row r="50" spans="16:18" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>